--- a/Casos de uso/UC5/UC5 test case.xlsx
+++ b/Casos de uso/UC5/UC5 test case.xlsx
@@ -87,34 +87,29 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -130,9 +125,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
